--- a/Physics/draft/light.xlsx
+++ b/Physics/draft/light.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Physics\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CAFE001E-7AFF-4BC5-A282-4CB921FE0843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA3FD4-15B3-4A45-BFE6-08E9248560C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="14640" windowHeight="22680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Presentation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>8V</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Transform</t>
   </si>
   <si>
-    <t>abs error</t>
-  </si>
-  <si>
     <t>Distance % Error</t>
   </si>
   <si>
@@ -165,25 +162,37 @@
     <t>Graph</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>1/distance^2</t>
-  </si>
-  <si>
     <t>1/distance % error</t>
   </si>
   <si>
     <t>1/distance abs error</t>
   </si>
+  <si>
+    <t>1/Distance^2</t>
+  </si>
+  <si>
+    <t>1/Dist^2 % Error</t>
+  </si>
+  <si>
+    <t>Absolute Error</t>
+  </si>
+  <si>
+    <t>Steepest Error</t>
+  </si>
+  <si>
+    <t>Shallowest Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/Distance^2 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -374,39 +383,39 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1061,6 +1070,44 @@
                   <c:y val="-0.51811010099124488"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>K</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:t>v</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> = 2.4439(m)</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:t>-1.879</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1236,28 +1283,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1813.4</c:v>
+                  <c:v>1798.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1035.2</c:v>
+                  <c:v>1020.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>683.3</c:v>
+                  <c:v>668.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514.92000000000007</c:v>
+                  <c:v>499.92000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>380.26000000000005</c:v>
+                  <c:v>365.26000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>281.16000000000003</c:v>
+                  <c:v>266.16000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241.17999999999998</c:v>
+                  <c:v>226.17999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204.6</c:v>
+                  <c:v>189.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,13 +1731,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:forward val="50"/>
+            <c:backward val="100"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.20016649620864063"/>
-                  <c:y val="-0.19943073770518321"/>
+                  <c:x val="0.15973910678810868"/>
+                  <c:y val="-0.15282965876319243"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1713,7 +1762,14 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Ev = 1.5881 1/s^2 + 49.179</a:t>
+                      <a:t>Kv = 1.5881(1/m^2) + 34.179</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0.9995</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -1959,28 +2015,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1813.4</c:v>
+                  <c:v>1798.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1035.2</c:v>
+                  <c:v>1020.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>683.3</c:v>
+                  <c:v>668.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>514.92000000000007</c:v>
+                  <c:v>499.92000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>380.26000000000005</c:v>
+                  <c:v>365.26000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>281.16000000000003</c:v>
+                  <c:v>266.16000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241.17999999999998</c:v>
+                  <c:v>226.17999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>204.6</c:v>
+                  <c:v>189.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,13 +2091,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:backward val="100"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19863387214050002"/>
-                  <c:y val="-0.12052016520123791"/>
+                  <c:x val="0.18983216147414628"/>
+                  <c:y val="-9.235853628955247E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2070,7 +2127,7 @@
                           </a:schemeClr>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>Ev = 1.7555 1/s^2 - 25.549</a:t>
+                      <a:t>Kv = 1.7209(1/m^2) + 12.912</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US">
                       <a:solidFill>
@@ -2155,7 +2212,7 @@
                   <c:v>1925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2167,8 +2224,172 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Presentation!$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/distance abs error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="6350" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="100"/>
+            <c:backward val="100"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13075407987068369"/>
+                  <c:y val="-7.752291723494098E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>Kv = 1.4786(1/m^2) + 47.143</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Presentation!$C$101:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>399.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>277.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204.08163265306121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.4567901234568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.999999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Presentation!$F$101:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-369F-460C-8DCA-9E48D13CB117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3637,15 +3858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38655</xdr:colOff>
+      <xdr:colOff>38654</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>48054</xdr:rowOff>
+      <xdr:rowOff>18289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>835269</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>153865</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3673,15 +3894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>545856</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>16853</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>740229</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4005,7 +4226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4140,7 +4361,7 @@
         <v>0.04</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K8:K15" si="3">1/POWER(J9,2)</f>
+        <f t="shared" ref="K9:K15" si="3">1/POWER(J9,2)</f>
         <v>625</v>
       </c>
       <c r="L9">
@@ -4385,11 +4606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C59" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4403,18 +4624,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="3:8" ht="15">
       <c r="C7" t="s">
@@ -4617,11 +4838,11 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4633,8 +4854,8 @@
         <f>D17*D18</f>
         <v>1.9440000000000002</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" t="s">
@@ -4691,7 +4912,7 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="4"/>
@@ -4701,13 +4922,13 @@
       <c r="H33" s="4"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" t="str">
@@ -4733,197 +4954,197 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="4">
-        <f>D8-$D$19</f>
-        <v>1782</v>
+        <f t="shared" ref="C37:G44" si="0">D8-$D$19</f>
+        <v>1767</v>
       </c>
       <c r="D37" s="4">
-        <f>E8-$D$19</f>
-        <v>1955</v>
+        <f t="shared" si="0"/>
+        <v>1940</v>
       </c>
       <c r="E37" s="4">
-        <f>F8-$D$19</f>
-        <v>1752</v>
+        <f t="shared" si="0"/>
+        <v>1737</v>
       </c>
       <c r="F37" s="4">
-        <f>G8-$D$19</f>
-        <v>1796</v>
+        <f t="shared" si="0"/>
+        <v>1781</v>
       </c>
       <c r="G37" s="4">
-        <f>H8-$D$19</f>
-        <v>1782</v>
+        <f t="shared" si="0"/>
+        <v>1767</v>
       </c>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="4">
-        <f>D9-$D$19</f>
-        <v>1022</v>
+        <f t="shared" si="0"/>
+        <v>1007</v>
       </c>
       <c r="D38" s="4">
-        <f>E9-$D$19</f>
-        <v>1065</v>
+        <f t="shared" si="0"/>
+        <v>1050</v>
       </c>
       <c r="E38" s="4">
-        <f>F9-$D$19</f>
-        <v>1008</v>
+        <f t="shared" si="0"/>
+        <v>993</v>
       </c>
       <c r="F38" s="4">
-        <f>G9-$D$19</f>
-        <v>1038</v>
+        <f t="shared" si="0"/>
+        <v>1023</v>
       </c>
       <c r="G38" s="4">
-        <f>H9-$D$19</f>
-        <v>1043</v>
+        <f t="shared" si="0"/>
+        <v>1028</v>
       </c>
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="4">
-        <f>D10-$D$19</f>
-        <v>677</v>
+        <f t="shared" si="0"/>
+        <v>662</v>
       </c>
       <c r="D39" s="4">
-        <f>E10-$D$19</f>
-        <v>656.9</v>
+        <f t="shared" si="0"/>
+        <v>641.9</v>
       </c>
       <c r="E39" s="4">
-        <f>F10-$D$19</f>
-        <v>707.9</v>
+        <f t="shared" si="0"/>
+        <v>692.9</v>
       </c>
       <c r="F39" s="4">
-        <f>G10-$D$19</f>
-        <v>684.7</v>
+        <f t="shared" si="0"/>
+        <v>669.7</v>
       </c>
       <c r="G39" s="4">
-        <f>H10-$D$19</f>
-        <v>690</v>
+        <f t="shared" si="0"/>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="4">
-        <f>D11-$D$19</f>
-        <v>522.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>507.20000000000005</v>
       </c>
       <c r="D40" s="4">
-        <f>E11-$D$19</f>
-        <v>482</v>
+        <f t="shared" si="0"/>
+        <v>467</v>
       </c>
       <c r="E40" s="4">
-        <f>F11-$D$19</f>
-        <v>502.6</v>
+        <f t="shared" si="0"/>
+        <v>487.6</v>
       </c>
       <c r="F40" s="4">
-        <f>G11-$D$19</f>
-        <v>546.29999999999995</v>
+        <f t="shared" si="0"/>
+        <v>531.29999999999995</v>
       </c>
       <c r="G40" s="4">
-        <f>H11-$D$19</f>
-        <v>521.5</v>
+        <f t="shared" si="0"/>
+        <v>506.5</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="4">
-        <f>D12-$D$19</f>
-        <v>386.1</v>
+        <f t="shared" si="0"/>
+        <v>371.1</v>
       </c>
       <c r="D41" s="4">
-        <f>E12-$D$19</f>
-        <v>363.6</v>
+        <f t="shared" si="0"/>
+        <v>348.6</v>
       </c>
       <c r="E41" s="4">
-        <f>F12-$D$19</f>
-        <v>385.2</v>
+        <f t="shared" si="0"/>
+        <v>370.2</v>
       </c>
       <c r="F41" s="4">
-        <f>G12-$D$19</f>
-        <v>376.4</v>
+        <f t="shared" si="0"/>
+        <v>361.4</v>
       </c>
       <c r="G41" s="4">
-        <f>H12-$D$19</f>
-        <v>390</v>
+        <f t="shared" si="0"/>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="4">
-        <f>D13-$D$19</f>
-        <v>273.8</v>
+        <f t="shared" si="0"/>
+        <v>258.8</v>
       </c>
       <c r="D42" s="4">
-        <f>E13-$D$19</f>
-        <v>292.2</v>
+        <f t="shared" si="0"/>
+        <v>277.2</v>
       </c>
       <c r="E42" s="4">
-        <f>F13-$D$19</f>
-        <v>271.5</v>
+        <f t="shared" si="0"/>
+        <v>256.5</v>
       </c>
       <c r="F42" s="4">
-        <f>G13-$D$19</f>
-        <v>270.7</v>
+        <f t="shared" si="0"/>
+        <v>255.7</v>
       </c>
       <c r="G42" s="4">
-        <f>H13-$D$19</f>
-        <v>297.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>282.60000000000002</v>
       </c>
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="4">
-        <f>D14-$D$19</f>
-        <v>245.9</v>
+        <f t="shared" si="0"/>
+        <v>230.9</v>
       </c>
       <c r="D43" s="4">
-        <f>E14-$D$19</f>
-        <v>237.5</v>
+        <f t="shared" si="0"/>
+        <v>222.5</v>
       </c>
       <c r="E43" s="4">
-        <f>F14-$D$19</f>
-        <v>238.9</v>
+        <f t="shared" si="0"/>
+        <v>223.9</v>
       </c>
       <c r="F43" s="4">
-        <f>G14-$D$19</f>
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="G43" s="4">
-        <f>H14-$D$19</f>
-        <v>228.6</v>
+        <f t="shared" si="0"/>
+        <v>213.6</v>
       </c>
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="4">
-        <f>D15-$D$19</f>
-        <v>211.3</v>
+        <f t="shared" si="0"/>
+        <v>196.3</v>
       </c>
       <c r="D44" s="4">
-        <f>E15-$D$19</f>
-        <v>192.6</v>
+        <f t="shared" si="0"/>
+        <v>177.6</v>
       </c>
       <c r="E44" s="4">
-        <f>F15-$D$19</f>
-        <v>208.4</v>
+        <f t="shared" si="0"/>
+        <v>193.4</v>
       </c>
       <c r="F44" s="4">
-        <f>G15-$D$19</f>
-        <v>196.6</v>
+        <f t="shared" si="0"/>
+        <v>181.6</v>
       </c>
       <c r="G44" s="4">
-        <f>H15-$D$19</f>
-        <v>214.1</v>
+        <f t="shared" si="0"/>
+        <v>199.1</v>
       </c>
     </row>
     <row r="48" spans="3:8">
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="50" spans="3:6">
-      <c r="D50" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="3:6" ht="15">
       <c r="C51" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="9"/>
       <c r="E51" t="s">
         <v>20</v>
       </c>
@@ -4933,12 +5154,12 @@
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="2">
-        <f>C8/100</f>
+        <f t="shared" ref="C52:C59" si="1">C8/100</f>
         <v>0.03</v>
       </c>
       <c r="D52" s="4">
         <f>AVERAGE(C37:G37)</f>
-        <v>1813.4</v>
+        <v>1798.4</v>
       </c>
       <c r="E52" s="4">
         <f>(MAX(C37:G37)-MIN(C37:G37))/2</f>
@@ -4951,173 +5172,173 @@
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="2">
-        <f>C9/100</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" ref="D53:D59" si="0">AVERAGE(C38:G38)</f>
-        <v>1035.2</v>
+        <f t="shared" ref="D53:D59" si="2">AVERAGE(C38:G38)</f>
+        <v>1020.2</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" ref="E53:E59" si="1">(MAX(C38:G38)-MIN(C38:G38))/2</f>
+        <f t="shared" ref="E53:E59" si="3">(MAX(C38:G38)-MIN(C38:G38))/2</f>
         <v>28.5</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" ref="F53:F59" si="2">E53</f>
+        <f t="shared" ref="F53:F59" si="4">E53</f>
         <v>28.5</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="C54" s="2">
-        <f>C10/100</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="0"/>
-        <v>683.3</v>
+        <f t="shared" si="2"/>
+        <v>668.3</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="C55" s="2">
-        <f>C11/100</f>
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="0"/>
-        <v>514.92000000000007</v>
+        <f t="shared" si="2"/>
+        <v>499.92000000000007</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32.149999999999977</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.149999999999977</v>
       </c>
     </row>
     <row r="56" spans="3:6">
       <c r="C56" s="2">
-        <f>C12/100</f>
+        <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="0"/>
-        <v>380.26000000000005</v>
+        <f t="shared" si="2"/>
+        <v>365.26000000000005</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.199999999999989</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.199999999999989</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="C57" s="2">
-        <f>C13/100</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="0"/>
-        <v>281.16000000000003</v>
+        <f t="shared" si="2"/>
+        <v>266.16000000000003</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.450000000000017</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.450000000000017</v>
       </c>
     </row>
     <row r="58" spans="3:6">
       <c r="C58" s="2">
-        <f>C14/100</f>
+        <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="0"/>
-        <v>241.17999999999998</v>
+        <f t="shared" si="2"/>
+        <v>226.17999999999998</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.200000000000003</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.200000000000003</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="C59" s="2">
-        <f>C15/100</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="0"/>
-        <v>204.6</v>
+        <f t="shared" si="2"/>
+        <v>189.6</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.75</v>
       </c>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="3:11" ht="14.25" customHeight="1">
+    <row r="81" spans="3:12" ht="14.25" customHeight="1">
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G81" t="str">
         <f>D50</f>
         <v>Average Illuminance (lux)</v>
       </c>
     </row>
-    <row r="82" spans="3:11">
+    <row r="82" spans="3:12">
       <c r="C82">
-        <f>1/POWER(C52,2)</f>
+        <f t="shared" ref="C82:C89" si="5">1/POWER(C52,2)</f>
         <v>1111.1111111111111</v>
       </c>
       <c r="D82">
-        <f>0.001/C52</f>
+        <f t="shared" ref="D82:D89" si="6">0.001/C52</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E82">
-        <f>2*D82</f>
+        <f t="shared" ref="E82:E89" si="7">2*D82</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="F82">
-        <f>E82*C82</f>
+        <f t="shared" ref="F82:F89" si="8">E82*C82</f>
         <v>74.074074074074076</v>
       </c>
       <c r="G82" s="4">
-        <f>D52</f>
-        <v>1813.4</v>
+        <f t="shared" ref="G82:G89" si="9">D52</f>
+        <v>1798.4</v>
       </c>
       <c r="I82">
         <v>74.074074074074076</v>
@@ -5125,27 +5346,33 @@
       <c r="J82">
         <v>1111.1111111111111</v>
       </c>
-    </row>
-    <row r="83" spans="3:11">
+      <c r="K82">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="L82">
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
       <c r="C83">
-        <f>1/POWER(C53,2)</f>
+        <f t="shared" si="5"/>
         <v>625</v>
       </c>
       <c r="D83">
-        <f>0.001/C53</f>
+        <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E83">
-        <f>2*D83</f>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="F83">
-        <f>E83*C83</f>
+        <f t="shared" si="8"/>
         <v>31.25</v>
       </c>
       <c r="G83" s="4">
-        <f>D53</f>
-        <v>1035.2</v>
+        <f t="shared" si="9"/>
+        <v>1020.2</v>
       </c>
       <c r="I83">
         <v>31.25</v>
@@ -5153,27 +5380,33 @@
       <c r="J83">
         <v>625</v>
       </c>
-    </row>
-    <row r="84" spans="3:11">
+      <c r="K83">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L83">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12">
       <c r="C84">
-        <f>1/POWER(C54,2)</f>
+        <f t="shared" si="5"/>
         <v>399.99999999999994</v>
       </c>
       <c r="D84">
-        <f>0.001/C54</f>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="E84">
-        <f>2*D84</f>
+        <f t="shared" si="7"/>
         <v>0.04</v>
       </c>
       <c r="F84">
-        <f>E84*C84</f>
+        <f t="shared" si="8"/>
         <v>15.999999999999998</v>
       </c>
       <c r="G84" s="4">
-        <f>D54</f>
-        <v>683.3</v>
+        <f t="shared" si="9"/>
+        <v>668.3</v>
       </c>
       <c r="I84">
         <v>15.999999999999998</v>
@@ -5181,27 +5414,33 @@
       <c r="J84">
         <v>399.99999999999994</v>
       </c>
-    </row>
-    <row r="85" spans="3:11">
+      <c r="K84">
+        <v>0.02</v>
+      </c>
+      <c r="L84">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12">
       <c r="C85">
-        <f>1/POWER(C55,2)</f>
+        <f t="shared" si="5"/>
         <v>277.77777777777777</v>
       </c>
       <c r="D85">
-        <f>0.001/C55</f>
+        <f t="shared" si="6"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="E85">
-        <f>2*D85</f>
+        <f t="shared" si="7"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F85">
-        <f>E85*C85</f>
+        <f t="shared" si="8"/>
         <v>9.2592592592592595</v>
       </c>
       <c r="G85" s="4">
-        <f>D55</f>
-        <v>514.92000000000007</v>
+        <f t="shared" si="9"/>
+        <v>499.92000000000007</v>
       </c>
       <c r="I85">
         <v>9.2592592592592595</v>
@@ -5209,27 +5448,33 @@
       <c r="J85">
         <v>277.77777777777777</v>
       </c>
-    </row>
-    <row r="86" spans="3:11">
+      <c r="K85">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="L85">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12">
       <c r="C86">
-        <f>1/POWER(C56,2)</f>
+        <f t="shared" si="5"/>
         <v>204.08163265306121</v>
       </c>
       <c r="D86">
-        <f>0.001/C56</f>
+        <f t="shared" si="6"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="E86">
-        <f>2*D86</f>
+        <f t="shared" si="7"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="F86">
-        <f>E86*C86</f>
+        <f t="shared" si="8"/>
         <v>5.8309037900874632</v>
       </c>
       <c r="G86" s="4">
-        <f>D56</f>
-        <v>380.26000000000005</v>
+        <f t="shared" si="9"/>
+        <v>365.26000000000005</v>
       </c>
       <c r="I86">
         <v>5.8309037900874632</v>
@@ -5237,27 +5482,33 @@
       <c r="J86">
         <v>204.08163265306121</v>
       </c>
-    </row>
-    <row r="87" spans="3:11">
+      <c r="K86">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="L86">
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12">
       <c r="C87">
-        <f>1/POWER(C57,2)</f>
+        <f t="shared" si="5"/>
         <v>156.25</v>
       </c>
       <c r="D87">
-        <f>0.001/C57</f>
+        <f t="shared" si="6"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E87">
-        <f>2*D87</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F87">
-        <f>E87*C87</f>
+        <f t="shared" si="8"/>
         <v>3.90625</v>
       </c>
       <c r="G87" s="4">
-        <f>D57</f>
-        <v>281.16000000000003</v>
+        <f t="shared" si="9"/>
+        <v>266.16000000000003</v>
       </c>
       <c r="I87">
         <v>3.90625</v>
@@ -5265,27 +5516,33 @@
       <c r="J87">
         <v>156.25</v>
       </c>
-    </row>
-    <row r="88" spans="3:11">
+      <c r="K87">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="L87">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12">
       <c r="C88">
-        <f>1/POWER(C58,2)</f>
+        <f t="shared" si="5"/>
         <v>123.4567901234568</v>
       </c>
       <c r="D88">
-        <f>0.001/C58</f>
+        <f t="shared" si="6"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="E88">
-        <f>2*D88</f>
+        <f t="shared" si="7"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="F88">
-        <f>E88*C88</f>
+        <f t="shared" si="8"/>
         <v>2.7434842249657065</v>
       </c>
       <c r="G88" s="4">
-        <f>D58</f>
-        <v>241.17999999999998</v>
+        <f t="shared" si="9"/>
+        <v>226.17999999999998</v>
       </c>
       <c r="I88">
         <v>2.7434842249657065</v>
@@ -5293,27 +5550,33 @@
       <c r="J88">
         <v>123.4567901234568</v>
       </c>
-    </row>
-    <row r="89" spans="3:11">
+      <c r="K88">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="L88">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12">
       <c r="C89">
-        <f>1/POWER(C59,2)</f>
+        <f t="shared" si="5"/>
         <v>99.999999999999986</v>
       </c>
       <c r="D89">
-        <f>0.001/C59</f>
+        <f t="shared" si="6"/>
         <v>0.01</v>
       </c>
       <c r="E89">
-        <f>2*D89</f>
+        <f t="shared" si="7"/>
         <v>0.02</v>
       </c>
       <c r="F89">
-        <f>E89*C89</f>
+        <f t="shared" si="8"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="G89" s="4">
-        <f>D59</f>
-        <v>204.6</v>
+        <f t="shared" si="9"/>
+        <v>189.6</v>
       </c>
       <c r="I89">
         <v>1.9999999999999998</v>
@@ -5321,10 +5584,16 @@
       <c r="J89">
         <v>99.999999999999986</v>
       </c>
-    </row>
-    <row r="92" spans="3:11">
+      <c r="K89">
+        <v>0.01</v>
+      </c>
+      <c r="L89">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12">
       <c r="C92" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D92">
         <v>1111.1111111111111</v>
@@ -5351,137 +5620,204 @@
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="93" spans="3:11">
-      <c r="C93" s="9" t="s">
+    <row r="93" spans="3:12">
+      <c r="C93" t="s">
         <v>33</v>
       </c>
       <c r="D93">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E93">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.02</v>
+      </c>
+      <c r="G93">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H93">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="I93">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J93">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12">
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E94">
+        <v>0.05</v>
+      </c>
+      <c r="F94">
+        <v>0.04</v>
+      </c>
+      <c r="G94">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H94">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I94">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J94">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="K94">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12">
+      <c r="C95" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95">
         <v>74.074074074074076</v>
       </c>
-      <c r="E93">
+      <c r="E95">
         <v>31.25</v>
       </c>
-      <c r="F93">
+      <c r="F95">
         <v>15.999999999999998</v>
       </c>
-      <c r="G93">
+      <c r="G95">
         <v>9.2592592592592595</v>
       </c>
-      <c r="H93">
+      <c r="H95">
         <v>5.8309037900874632</v>
       </c>
-      <c r="I93">
+      <c r="I95">
         <v>3.90625</v>
       </c>
-      <c r="J93">
+      <c r="J95">
         <v>2.7434842249657065</v>
       </c>
-      <c r="K93">
+      <c r="K95">
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="3:5">
-      <c r="C97" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5">
+    <row r="97" spans="3:6">
+      <c r="C97" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
       <c r="C100" t="str">
         <f>C81</f>
-        <v>1/distance^2</v>
+        <v>1/Distance^2</v>
       </c>
       <c r="D100" t="str">
         <f>D50</f>
         <v>Average Illuminance (lux)</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
       <c r="C101">
-        <f t="shared" ref="C101:C109" si="3">C82</f>
+        <f t="shared" ref="C101:C108" si="10">C82</f>
         <v>1111.1111111111111</v>
       </c>
       <c r="D101" s="4">
         <f>D52</f>
-        <v>1813.4</v>
+        <v>1798.4</v>
       </c>
       <c r="E101">
         <v>1925</v>
       </c>
-    </row>
-    <row r="102" spans="3:5">
+      <c r="F101">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6">
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>625</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" ref="D102:D108" si="4">D53</f>
-        <v>1035.2</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
+        <f t="shared" ref="D102:D108" si="11">D53</f>
+        <v>1020.2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>399.99999999999994</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="4"/>
-        <v>683.3</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5">
+        <f t="shared" si="11"/>
+        <v>668.3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6">
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>277.77777777777777</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="4"/>
-        <v>514.92000000000007</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
+        <f t="shared" si="11"/>
+        <v>499.92000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6">
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>204.08163265306121</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="4"/>
-        <v>380.26000000000005</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5">
+        <f t="shared" si="11"/>
+        <v>365.26000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6">
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>156.25</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="4"/>
-        <v>281.16000000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="3:5">
+        <f t="shared" si="11"/>
+        <v>266.16000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6">
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>123.4567901234568</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="4"/>
-        <v>241.17999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5">
+        <f t="shared" si="11"/>
+        <v>226.17999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6">
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>99.999999999999986</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="4"/>
-        <v>204.6</v>
+        <f t="shared" si="11"/>
+        <v>189.6</v>
       </c>
       <c r="E108">
-        <v>150</v>
+        <v>185</v>
+      </c>
+      <c r="F108">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Physics/draft/light.xlsx
+++ b/Physics/draft/light.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Physics\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA3FD4-15B3-4A45-BFE6-08E9248560C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF2E6B-C14C-4A12-8F08-DF1217C6FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="14640" windowHeight="22680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Averaging</t>
   </si>
   <si>
-    <t>Half Range (lux)</t>
-  </si>
-  <si>
     <t>Absolute Error (lux)</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Distance % Error</t>
   </si>
   <si>
-    <t>Average Illuminance (lux)</t>
-  </si>
-  <si>
     <t>Graph</t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t xml:space="preserve">1/Distance^2 </t>
+  </si>
+  <si>
+    <t>Average Illuminance (lx)</t>
+  </si>
+  <si>
+    <t>Half Range (lx)</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Average Illuminance (lux)</c:v>
+                  <c:v>Average Illuminance (lx)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4609,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -4843,12 +4843,12 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <f>D17*D18</f>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <f>0.01/D17</f>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="26" spans="3:8">
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <f>0.01/D18</f>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="27" spans="3:8">
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <f>D25+D26</f>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="28" spans="3:8">
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1">
         <f>D24*D27</f>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -5135,21 +5135,21 @@
     </row>
     <row r="50" spans="3:6">
       <c r="D50" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="3:6" ht="15">
       <c r="C51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
         <v>20</v>
-      </c>
-      <c r="F51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="52" spans="3:6">
@@ -5298,25 +5298,25 @@
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="3:12" ht="14.25" customHeight="1">
       <c r="C81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G81" t="str">
         <f>D50</f>
-        <v>Average Illuminance (lux)</v>
+        <v>Average Illuminance (lx)</v>
       </c>
     </row>
     <row r="82" spans="3:12">
@@ -5593,7 +5593,7 @@
     </row>
     <row r="92" spans="3:12">
       <c r="C92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D92">
         <v>1111.1111111111111</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="93" spans="3:12">
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93">
         <v>3.3333333333333333E-2</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="94" spans="3:12">
       <c r="C94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D94">
         <v>6.6666666666666666E-2</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="95" spans="3:12">
       <c r="C95" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D95">
         <v>74.074074074074076</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="97" spans="3:6">
       <c r="C97" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="3:6">
@@ -5719,13 +5719,13 @@
       </c>
       <c r="D100" t="str">
         <f>D50</f>
-        <v>Average Illuminance (lux)</v>
+        <v>Average Illuminance (lx)</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="3:6">

--- a/Physics/draft/light.xlsx
+++ b/Physics/draft/light.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Physics\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF2E6B-C14C-4A12-8F08-DF1217C6FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CD29DA-C377-4B27-A2E1-59D5CA6F4DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Averaging</t>
   </si>
   <si>
-    <t>Absolute Error (lux)</t>
-  </si>
-  <si>
     <r>
       <t>Distance (</t>
     </r>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Half Range (lx)</t>
+  </si>
+  <si>
+    <t>Absolute Error (lx)</t>
   </si>
 </sst>
 </file>
@@ -4609,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -4843,12 +4843,12 @@
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <f>D17*D18</f>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <f>0.01/D17</f>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="26" spans="3:8">
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <f>0.01/D18</f>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="27" spans="3:8">
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <f>D25+D26</f>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="28" spans="3:8">
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <f>D24*D27</f>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -5135,21 +5135,21 @@
     </row>
     <row r="50" spans="3:6">
       <c r="D50" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="3:6" ht="15">
       <c r="C51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
         <v>43</v>
-      </c>
-      <c r="F51" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="52" spans="3:6">
@@ -5298,21 +5298,21 @@
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="3:12" ht="14.25" customHeight="1">
       <c r="C81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
         <v>34</v>
-      </c>
-      <c r="F81" t="s">
-        <v>35</v>
       </c>
       <c r="G81" t="str">
         <f>D50</f>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="92" spans="3:12">
       <c r="C92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D92">
         <v>1111.1111111111111</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="93" spans="3:12">
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>3.3333333333333333E-2</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="94" spans="3:12">
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94">
         <v>6.6666666666666666E-2</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="95" spans="3:12">
       <c r="C95" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D95">
         <v>74.074074074074076</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="97" spans="3:6">
       <c r="C97" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="3:6">
@@ -5722,10 +5722,10 @@
         <v>Average Illuminance (lx)</v>
       </c>
       <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
         <v>39</v>
-      </c>
-      <c r="F100" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="101" spans="3:6">

--- a/Physics/draft/light.xlsx
+++ b/Physics/draft/light.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Physics\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CD29DA-C377-4B27-A2E1-59D5CA6F4DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB83E8DB-5678-4FD7-B8C7-1801A4AEF32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>8V</t>
   </si>
@@ -62,20 +62,6 @@
     <t>Corrected</t>
   </si>
   <si>
-    <r>
-      <t>Distance (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>±0.1cm)</t>
-    </r>
-  </si>
-  <si>
     <t>Trial 1</t>
   </si>
   <si>
@@ -89,12 +75,6 @@
   </si>
   <si>
     <t>Trial 5</t>
-  </si>
-  <si>
-    <t>Current (±0.01A)</t>
-  </si>
-  <si>
-    <t>Voltage (±0.01V)</t>
   </si>
   <si>
     <t>Raw Data</t>
@@ -135,13 +115,7 @@
     <t>Power Abs Uncert</t>
   </si>
   <si>
-    <t>Mean Illuminance (±2lx)</t>
-  </si>
-  <si>
     <t>Corrected Illuminance (±4lx)</t>
-  </si>
-  <si>
-    <t>Ambient (±2lx)</t>
   </si>
   <si>
     <t>Transform</t>
@@ -151,15 +125,6 @@
   </si>
   <si>
     <t>Graph</t>
-  </si>
-  <si>
-    <t>1/distance % error</t>
-  </si>
-  <si>
-    <t>1/distance abs error</t>
-  </si>
-  <si>
-    <t>1/Distance^2</t>
   </si>
   <si>
     <t>1/Dist^2 % Error</t>
@@ -184,6 +149,70 @@
   </si>
   <si>
     <t>Absolute Error (lx)</t>
+  </si>
+  <si>
+    <t>Mean Illuminance (±2 lx)</t>
+  </si>
+  <si>
+    <r>
+      <t>Distance (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.1 cm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Current (±0.01 A)</t>
+  </si>
+  <si>
+    <t>Voltage (±0.01 V)</t>
+  </si>
+  <si>
+    <t>Ambient (±2 lx)</t>
+  </si>
+  <si>
+    <r>
+      <t>Distance (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.001 m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Illuminance (±2 lx)</t>
+  </si>
+  <si>
+    <t>Averaged illuminance (lx)</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Distance (±0.001m) / d</t>
+  </si>
+  <si>
+    <t>Illuminance - Ambient Illuminance (±4lx) / Ek</t>
+  </si>
+  <si>
+    <t>1/Distance^2 / 1/d^2</t>
+  </si>
+  <si>
+    <t>1/Distance % error</t>
+  </si>
+  <si>
+    <t>1/Distance abs error</t>
   </si>
 </sst>
 </file>
@@ -335,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -355,6 +384,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,7 +424,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -395,6 +439,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -945,62 +1004,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Illuminance against Distance to source</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -1066,8 +1070,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13808649062380407"/>
-                  <c:y val="-0.51811010099124488"/>
+                  <c:x val="0.1752794271816574"/>
+                  <c:y val="-0.65193116743543278"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1089,22 +1093,22 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
                       <a:t>K</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
                       <a:t>v</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
                       <a:t> = 2.4439(m)</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="30000"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="30000"/>
                       <a:t>-1.879</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1368,12 +1372,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Distance to Source (m)</a:t>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Distance to Source /</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> d / m</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38465561937009435"/>
+              <c:y val="0.87982521402380198"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1485,12 +1502,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Illuminance (lx)</a:t>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Illuminance /</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> Ek / lx</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0304955652347233E-2"/>
+              <c:y val="0.2278986829851348"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1639,14 +1669,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Inverse</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> squared distance to light source against Illuminance</a:t>
-            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -1738,8 +1760,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15973910678810868"/>
-                  <c:y val="-0.15282965876319243"/>
+                  <c:x val="0.16307492802575832"/>
+                  <c:y val="0.23548779038390247"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1761,17 +1783,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>Kv = 1.5881(1/m^2) + 34.179</a:t>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:t>Ek = 1.5881(m^-2) + 34.179</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
                       <a:t>R² = 0.9995</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US"/>
+                    <a:endParaRPr lang="en-US" sz="1100"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2057,7 +2079,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/distance % error</c:v>
+                  <c:v>1/Distance % error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2084,7 +2106,7 @@
             <c:spPr>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -2097,8 +2119,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.18983216147414628"/>
-                  <c:y val="-9.235853628955247E-2"/>
+                  <c:x val="0.18577376119791739"/>
+                  <c:y val="0.35539843886717515"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2107,7 +2129,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -2120,20 +2142,16 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0">
+                      <a:rPr lang="en-US" sz="1050" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="75000"/>
-                          </a:schemeClr>
+                          <a:srgbClr val="00B0F0"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>Kv = 1.7209(1/m^2) + 12.912</a:t>
+                      <a:t>Ek = 1.7209(m^-2) + 12.912</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US">
+                    <a:endParaRPr lang="en-US" sz="1050">
                       <a:solidFill>
-                        <a:schemeClr val="accent2">
-                          <a:lumMod val="75000"/>
-                        </a:schemeClr>
+                        <a:srgbClr val="00B0F0"/>
                       </a:solidFill>
                     </a:endParaRPr>
                   </a:p>
@@ -2152,7 +2170,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2233,7 +2251,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/distance abs error</c:v>
+                  <c:v>1/Distance abs error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2266,8 +2284,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13075407987068369"/>
-                  <c:y val="-7.752291723494098E-2"/>
+                  <c:x val="0.13234379719196548"/>
+                  <c:y val="0.42488750382727053"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2276,7 +2294,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -2289,14 +2307,14 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0">
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
                         <a:solidFill>
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>Kv = 1.4786(1/m^2) + 47.143</a:t>
+                      <a:t>Ek = 1.4786(m^-2) + 47.143</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US">
+                    <a:endParaRPr lang="en-US" sz="1100">
                       <a:solidFill>
                         <a:srgbClr val="FF0000"/>
                       </a:solidFill>
@@ -2317,7 +2335,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2404,6 +2422,7 @@
         <c:axId val="723031784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2441,9 +2460,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>1/(Distance)^2  (m^-2)</a:t>
+                  <a:rPr lang="en-NZ" sz="1400"/>
+                  <a:t>1/(Distance)^2  /</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
+                  <a:t> d^-2 / m^-2</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2558,17 +2582,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
+                  <a:rPr lang="en-NZ" sz="1400"/>
                   <a:t>Illuminance</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-NZ" baseline="0"/>
-                  <a:t> (lx)</a:t>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
+                  <a:t> / Ek / lx</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-NZ"/>
+                <a:endParaRPr lang="en-NZ" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4076194329067064E-2"/>
+              <c:y val="0.29795540452576874"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3857,16 +3889,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38654</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>23526</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>18289</xdr:rowOff>
+      <xdr:rowOff>120824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494892</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>79104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4607,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:L108"/>
+  <dimension ref="C3:AC112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4620,44 +4652,74 @@
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="8" max="10" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="18" width="16.25" customWidth="1"/>
+    <col min="19" max="19" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:16">
       <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="15" thickBot="1"/>
+    <row r="6" spans="3:16" ht="15" thickBot="1">
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="3:8" ht="15">
+      <c r="K6" s="12"/>
+      <c r="L6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="3:16" ht="15.75" thickBot="1">
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
+      <c r="K7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="15" thickBot="1">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -4676,8 +4738,26 @@
       <c r="H8" s="4">
         <v>1785</v>
       </c>
-    </row>
-    <row r="9" spans="3:8">
+      <c r="K8" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1785</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1958</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1755</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1799</v>
+      </c>
+      <c r="P8" s="11">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="15" thickBot="1">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -4696,8 +4776,26 @@
       <c r="H9" s="4">
         <v>1046</v>
       </c>
-    </row>
-    <row r="10" spans="3:8">
+      <c r="K9" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1025</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1068</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1011</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1041</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="15" thickBot="1">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -4716,8 +4814,26 @@
       <c r="H10" s="4">
         <v>693</v>
       </c>
-    </row>
-    <row r="11" spans="3:8">
+      <c r="K10" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="11">
+        <v>680</v>
+      </c>
+      <c r="M10" s="11">
+        <v>659.9</v>
+      </c>
+      <c r="N10" s="11">
+        <v>710.9</v>
+      </c>
+      <c r="O10" s="11">
+        <v>687.7</v>
+      </c>
+      <c r="P10" s="11">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="15" thickBot="1">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -4736,8 +4852,26 @@
       <c r="H11" s="4">
         <v>524.5</v>
       </c>
-    </row>
-    <row r="12" spans="3:8">
+      <c r="K11" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="L11" s="11">
+        <v>525.20000000000005</v>
+      </c>
+      <c r="M11" s="11">
+        <v>485</v>
+      </c>
+      <c r="N11" s="11">
+        <v>505.6</v>
+      </c>
+      <c r="O11" s="11">
+        <v>549.29999999999995</v>
+      </c>
+      <c r="P11" s="11">
+        <v>524.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="15" thickBot="1">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -4756,8 +4890,26 @@
       <c r="H12" s="4">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
+      <c r="K12" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12" s="11">
+        <v>389.1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>366.6</v>
+      </c>
+      <c r="N12" s="11">
+        <v>388.2</v>
+      </c>
+      <c r="O12" s="11">
+        <v>379.4</v>
+      </c>
+      <c r="P12" s="11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="15" thickBot="1">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -4776,8 +4928,26 @@
       <c r="H13" s="4">
         <v>300.60000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="3:8">
+      <c r="K13" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="L13" s="11">
+        <v>276.8</v>
+      </c>
+      <c r="M13" s="11">
+        <v>295.2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>274.5</v>
+      </c>
+      <c r="O13" s="11">
+        <v>273.7</v>
+      </c>
+      <c r="P13" s="11">
+        <v>300.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="15" thickBot="1">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -4796,8 +4966,26 @@
       <c r="H14" s="4">
         <v>231.6</v>
       </c>
-    </row>
-    <row r="15" spans="3:8">
+      <c r="K14" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="11">
+        <v>248.9</v>
+      </c>
+      <c r="M14" s="11">
+        <v>240.5</v>
+      </c>
+      <c r="N14" s="11">
+        <v>241.9</v>
+      </c>
+      <c r="O14" s="11">
+        <v>258</v>
+      </c>
+      <c r="P14" s="11">
+        <v>231.6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="15" thickBot="1">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -4816,39 +5004,76 @@
       <c r="H15" s="4">
         <v>217.1</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
+      <c r="K15" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="11">
+        <v>214.3</v>
+      </c>
+      <c r="M15" s="11">
+        <v>195.6</v>
+      </c>
+      <c r="N15" s="11">
+        <v>211.4</v>
+      </c>
+      <c r="O15" s="11">
+        <v>199.6</v>
+      </c>
+      <c r="P15" s="11">
+        <v>217.1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="15" thickBot="1"/>
+    <row r="17" spans="3:12" ht="15" thickBot="1">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="18" spans="3:8">
+      <c r="K17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="15" thickBot="1">
       <c r="C18" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="19" spans="3:8">
+      <c r="K18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="15" thickBot="1">
       <c r="C19" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="3:8">
+      <c r="K19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <f>D17*D18</f>
@@ -4857,18 +5082,18 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:12">
       <c r="C25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <f>0.01/D17</f>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="3:12">
       <c r="C26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <f>0.01/D18</f>
@@ -4877,9 +5102,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="3:12">
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <f>D25+D26</f>
@@ -4888,9 +5113,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="3:12">
       <c r="C28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1">
         <f>D24*D27</f>
@@ -4899,38 +5124,47 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="3:8">
+    <row r="29" spans="3:12">
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="3:8">
+    <row r="30" spans="3:12">
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="3:8">
+    <row r="31" spans="3:12">
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="3:8">
+    <row r="32" spans="3:12">
       <c r="C32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="3:8">
+    <row r="33" spans="3:16">
       <c r="H33" s="4"/>
     </row>
-    <row r="35" spans="3:8">
+    <row r="34" spans="3:16" ht="15" thickBot="1"/>
+    <row r="35" spans="3:16" ht="15" thickBot="1">
       <c r="C35" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="3:8">
+      <c r="K35" s="12"/>
+      <c r="L35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+    </row>
+    <row r="36" spans="3:16" ht="15" thickBot="1">
       <c r="C36" t="str">
         <f>D7</f>
         <v>Trial 1</v>
@@ -4951,8 +5185,26 @@
         <f>H7</f>
         <v>Trial 5</v>
       </c>
-    </row>
-    <row r="37" spans="3:8">
+      <c r="K36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="15" thickBot="1">
       <c r="C37" s="4">
         <f t="shared" ref="C37:G44" si="0">D8-$D$19</f>
         <v>1767</v>
@@ -4973,8 +5225,26 @@
         <f t="shared" si="0"/>
         <v>1767</v>
       </c>
-    </row>
-    <row r="38" spans="3:8">
+      <c r="K37" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="L37" s="11">
+        <v>1767</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1940</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1737</v>
+      </c>
+      <c r="O37" s="11">
+        <v>1781</v>
+      </c>
+      <c r="P37" s="11">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="15" thickBot="1">
       <c r="C38" s="4">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -4995,8 +5265,26 @@
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-    </row>
-    <row r="39" spans="3:8">
+      <c r="K38" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1007</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1050</v>
+      </c>
+      <c r="N38" s="11">
+        <v>993</v>
+      </c>
+      <c r="O38" s="11">
+        <v>1023</v>
+      </c>
+      <c r="P38" s="11">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="15" thickBot="1">
       <c r="C39" s="4">
         <f t="shared" si="0"/>
         <v>662</v>
@@ -5017,8 +5305,26 @@
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
-    </row>
-    <row r="40" spans="3:8">
+      <c r="K39" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="L39" s="11">
+        <v>662</v>
+      </c>
+      <c r="M39" s="11">
+        <v>641.9</v>
+      </c>
+      <c r="N39" s="11">
+        <v>692.9</v>
+      </c>
+      <c r="O39" s="11">
+        <v>669.7</v>
+      </c>
+      <c r="P39" s="11">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" ht="15" thickBot="1">
       <c r="C40" s="4">
         <f t="shared" si="0"/>
         <v>507.20000000000005</v>
@@ -5039,8 +5345,26 @@
         <f t="shared" si="0"/>
         <v>506.5</v>
       </c>
-    </row>
-    <row r="41" spans="3:8">
+      <c r="K40" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="L40" s="11">
+        <v>507.20000000000005</v>
+      </c>
+      <c r="M40" s="11">
+        <v>467</v>
+      </c>
+      <c r="N40" s="11">
+        <v>487.6</v>
+      </c>
+      <c r="O40" s="11">
+        <v>531.29999999999995</v>
+      </c>
+      <c r="P40" s="11">
+        <v>506.5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="15" thickBot="1">
       <c r="C41" s="4">
         <f t="shared" si="0"/>
         <v>371.1</v>
@@ -5061,8 +5385,26 @@
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-    </row>
-    <row r="42" spans="3:8">
+      <c r="K41" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L41" s="11">
+        <v>371.1</v>
+      </c>
+      <c r="M41" s="11">
+        <v>348.6</v>
+      </c>
+      <c r="N41" s="11">
+        <v>370.2</v>
+      </c>
+      <c r="O41" s="11">
+        <v>361.4</v>
+      </c>
+      <c r="P41" s="11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="15" thickBot="1">
       <c r="C42" s="4">
         <f t="shared" si="0"/>
         <v>258.8</v>
@@ -5083,8 +5425,26 @@
         <f t="shared" si="0"/>
         <v>282.60000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="3:8">
+      <c r="K42" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="L42" s="11">
+        <v>258.8</v>
+      </c>
+      <c r="M42" s="11">
+        <v>277.2</v>
+      </c>
+      <c r="N42" s="11">
+        <v>256.5</v>
+      </c>
+      <c r="O42" s="11">
+        <v>255.7</v>
+      </c>
+      <c r="P42" s="11">
+        <v>282.60000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="15" thickBot="1">
       <c r="C43" s="4">
         <f t="shared" si="0"/>
         <v>230.9</v>
@@ -5105,8 +5465,26 @@
         <f t="shared" si="0"/>
         <v>213.6</v>
       </c>
-    </row>
-    <row r="44" spans="3:8">
+      <c r="K43" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="L43" s="11">
+        <v>230.9</v>
+      </c>
+      <c r="M43" s="11">
+        <v>222.5</v>
+      </c>
+      <c r="N43" s="11">
+        <v>223.9</v>
+      </c>
+      <c r="O43" s="11">
+        <v>240</v>
+      </c>
+      <c r="P43" s="11">
+        <v>213.6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" ht="15" thickBot="1">
       <c r="C44" s="4">
         <f t="shared" si="0"/>
         <v>196.3</v>
@@ -5127,32 +5505,88 @@
         <f t="shared" si="0"/>
         <v>199.1</v>
       </c>
-    </row>
-    <row r="48" spans="3:8">
+      <c r="K44" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L44" s="11">
+        <v>196.3</v>
+      </c>
+      <c r="M44" s="11">
+        <v>177.6</v>
+      </c>
+      <c r="N44" s="11">
+        <v>193.4</v>
+      </c>
+      <c r="O44" s="11">
+        <v>181.6</v>
+      </c>
+      <c r="P44" s="11">
+        <v>199.1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16">
       <c r="C48" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" ht="15" thickBot="1"/>
+    <row r="50" spans="3:29" ht="15" thickBot="1">
       <c r="D50" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="3:6" ht="15">
+      <c r="K50" s="12"/>
+      <c r="L50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R50" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" ht="15.75" thickBot="1">
       <c r="C51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6">
+        <v>35</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="16"/>
+    </row>
+    <row r="52" spans="3:29" ht="15" thickBot="1">
       <c r="C52" s="2">
         <f t="shared" ref="C52:C59" si="1">C8/100</f>
         <v>0.03</v>
@@ -5169,8 +5603,34 @@
         <f>E52</f>
         <v>101.5</v>
       </c>
-    </row>
-    <row r="53" spans="3:6">
+      <c r="K52" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="L52" s="11">
+        <v>1767</v>
+      </c>
+      <c r="M52" s="11">
+        <v>1940</v>
+      </c>
+      <c r="N52" s="11">
+        <v>1737</v>
+      </c>
+      <c r="O52" s="11">
+        <v>1781</v>
+      </c>
+      <c r="P52" s="11">
+        <v>1767</v>
+      </c>
+      <c r="Q52" s="11">
+        <f>D52</f>
+        <v>1798.4</v>
+      </c>
+      <c r="R52" s="11">
+        <f>E52</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" ht="15" thickBot="1">
       <c r="C53" s="2">
         <f t="shared" si="1"/>
         <v>0.04</v>
@@ -5187,8 +5647,34 @@
         <f t="shared" ref="F53:F59" si="4">E53</f>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="54" spans="3:6">
+      <c r="K53" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="L53" s="11">
+        <v>1007</v>
+      </c>
+      <c r="M53" s="11">
+        <v>1050</v>
+      </c>
+      <c r="N53" s="11">
+        <v>993</v>
+      </c>
+      <c r="O53" s="11">
+        <v>1023</v>
+      </c>
+      <c r="P53" s="11">
+        <v>1028</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" ref="Q53:Q59" si="5">D53</f>
+        <v>1020.2</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" ref="R53:R59" si="6">E53</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" ht="15" thickBot="1">
       <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>0.05</v>
@@ -5205,8 +5691,34 @@
         <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
-    </row>
-    <row r="55" spans="3:6">
+      <c r="K54" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="L54" s="11">
+        <v>662</v>
+      </c>
+      <c r="M54" s="11">
+        <v>641.9</v>
+      </c>
+      <c r="N54" s="11">
+        <v>692.9</v>
+      </c>
+      <c r="O54" s="11">
+        <v>669.7</v>
+      </c>
+      <c r="P54" s="11">
+        <v>675</v>
+      </c>
+      <c r="Q54" s="11">
+        <f t="shared" si="5"/>
+        <v>668.3</v>
+      </c>
+      <c r="R54" s="11">
+        <f t="shared" si="6"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" ht="15" thickBot="1">
       <c r="C55" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
@@ -5223,8 +5735,34 @@
         <f t="shared" si="4"/>
         <v>32.149999999999977</v>
       </c>
-    </row>
-    <row r="56" spans="3:6">
+      <c r="K55" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="L55" s="11">
+        <v>507.20000000000005</v>
+      </c>
+      <c r="M55" s="11">
+        <v>467</v>
+      </c>
+      <c r="N55" s="11">
+        <v>487.6</v>
+      </c>
+      <c r="O55" s="11">
+        <v>531.29999999999995</v>
+      </c>
+      <c r="P55" s="11">
+        <v>506.5</v>
+      </c>
+      <c r="Q55" s="11">
+        <f t="shared" si="5"/>
+        <v>499.92000000000007</v>
+      </c>
+      <c r="R55" s="11">
+        <f t="shared" si="6"/>
+        <v>32.149999999999977</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29" ht="15" thickBot="1">
       <c r="C56" s="2">
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
@@ -5241,8 +5779,34 @@
         <f t="shared" si="4"/>
         <v>13.199999999999989</v>
       </c>
-    </row>
-    <row r="57" spans="3:6">
+      <c r="K56" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L56" s="11">
+        <v>371.1</v>
+      </c>
+      <c r="M56" s="11">
+        <v>348.6</v>
+      </c>
+      <c r="N56" s="11">
+        <v>370.2</v>
+      </c>
+      <c r="O56" s="11">
+        <v>361.4</v>
+      </c>
+      <c r="P56" s="11">
+        <v>375</v>
+      </c>
+      <c r="Q56" s="11">
+        <f t="shared" si="5"/>
+        <v>365.26000000000005</v>
+      </c>
+      <c r="R56" s="11">
+        <f t="shared" si="6"/>
+        <v>13.199999999999989</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29" ht="15" thickBot="1">
       <c r="C57" s="2">
         <f t="shared" si="1"/>
         <v>0.08</v>
@@ -5259,8 +5823,34 @@
         <f t="shared" si="4"/>
         <v>13.450000000000017</v>
       </c>
-    </row>
-    <row r="58" spans="3:6">
+      <c r="K57" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="L57" s="11">
+        <v>258.8</v>
+      </c>
+      <c r="M57" s="11">
+        <v>277.2</v>
+      </c>
+      <c r="N57" s="11">
+        <v>256.5</v>
+      </c>
+      <c r="O57" s="11">
+        <v>255.7</v>
+      </c>
+      <c r="P57" s="11">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="Q57" s="11">
+        <f t="shared" si="5"/>
+        <v>266.16000000000003</v>
+      </c>
+      <c r="R57" s="11">
+        <f t="shared" si="6"/>
+        <v>13.450000000000017</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" ht="15" thickBot="1">
       <c r="C58" s="2">
         <f t="shared" si="1"/>
         <v>0.09</v>
@@ -5277,8 +5867,34 @@
         <f t="shared" si="4"/>
         <v>13.200000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="3:6">
+      <c r="K58" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="L58" s="11">
+        <v>230.9</v>
+      </c>
+      <c r="M58" s="11">
+        <v>222.5</v>
+      </c>
+      <c r="N58" s="11">
+        <v>223.9</v>
+      </c>
+      <c r="O58" s="11">
+        <v>240</v>
+      </c>
+      <c r="P58" s="11">
+        <v>213.6</v>
+      </c>
+      <c r="Q58" s="11">
+        <f t="shared" si="5"/>
+        <v>226.17999999999998</v>
+      </c>
+      <c r="R58" s="11">
+        <f t="shared" si="6"/>
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" ht="15" thickBot="1">
       <c r="C59" s="2">
         <f t="shared" si="1"/>
         <v>0.1</v>
@@ -5295,24 +5911,50 @@
         <f t="shared" si="4"/>
         <v>10.75</v>
       </c>
+      <c r="K59" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L59" s="11">
+        <v>196.3</v>
+      </c>
+      <c r="M59" s="11">
+        <v>177.6</v>
+      </c>
+      <c r="N59" s="11">
+        <v>193.4</v>
+      </c>
+      <c r="O59" s="11">
+        <v>181.6</v>
+      </c>
+      <c r="P59" s="11">
+        <v>199.1</v>
+      </c>
+      <c r="Q59" s="11">
+        <f t="shared" si="5"/>
+        <v>189.6</v>
+      </c>
+      <c r="R59" s="11">
+        <f t="shared" si="6"/>
+        <v>10.75</v>
+      </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="3:12" ht="14.25" customHeight="1">
       <c r="C81" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G81" t="str">
         <f>D50</f>
@@ -5321,23 +5963,23 @@
     </row>
     <row r="82" spans="3:12">
       <c r="C82">
-        <f t="shared" ref="C82:C89" si="5">1/POWER(C52,2)</f>
+        <f t="shared" ref="C82:C89" si="7">1/POWER(C52,2)</f>
         <v>1111.1111111111111</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:D89" si="6">0.001/C52</f>
+        <f t="shared" ref="D82:D89" si="8">0.001/C52</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:E89" si="7">2*D82</f>
+        <f t="shared" ref="E82:E89" si="9">2*D82</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82:F89" si="8">E82*C82</f>
+        <f t="shared" ref="F82:F89" si="10">E82*C82</f>
         <v>74.074074074074076</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" ref="G82:G89" si="9">D52</f>
+        <f t="shared" ref="G82:G89" si="11">D52</f>
         <v>1798.4</v>
       </c>
       <c r="I82">
@@ -5355,23 +5997,23 @@
     </row>
     <row r="83" spans="3:12">
       <c r="C83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>625</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="F83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31.25</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1020.2</v>
       </c>
       <c r="I83">
@@ -5389,23 +6031,23 @@
     </row>
     <row r="84" spans="3:12">
       <c r="C84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>399.99999999999994</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.04</v>
       </c>
       <c r="F84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.999999999999998</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>668.3</v>
       </c>
       <c r="I84">
@@ -5423,23 +6065,23 @@
     </row>
     <row r="85" spans="3:12">
       <c r="C85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>277.77777777777777</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="F85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592595</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>499.92000000000007</v>
       </c>
       <c r="I85">
@@ -5457,23 +6099,23 @@
     </row>
     <row r="86" spans="3:12">
       <c r="C86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>204.08163265306121</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="E86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="F86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.8309037900874632</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>365.26000000000005</v>
       </c>
       <c r="I86">
@@ -5491,23 +6133,23 @@
     </row>
     <row r="87" spans="3:12">
       <c r="C87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156.25</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.90625</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>266.16000000000003</v>
       </c>
       <c r="I87">
@@ -5525,23 +6167,23 @@
     </row>
     <row r="88" spans="3:12">
       <c r="C88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>123.4567901234568</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="F88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7434842249657065</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>226.17999999999998</v>
       </c>
       <c r="I88">
@@ -5559,23 +6201,23 @@
     </row>
     <row r="89" spans="3:12">
       <c r="C89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99.999999999999986</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.01</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.02</v>
       </c>
       <c r="F89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9999999999999998</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>189.6</v>
       </c>
       <c r="I89">
@@ -5593,7 +6235,7 @@
     </row>
     <row r="92" spans="3:12">
       <c r="C92" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D92">
         <v>1111.1111111111111</v>
@@ -5622,7 +6264,7 @@
     </row>
     <row r="93" spans="3:12">
       <c r="C93" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D93">
         <v>3.3333333333333333E-2</v>
@@ -5651,7 +6293,7 @@
     </row>
     <row r="94" spans="3:12">
       <c r="C94" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D94">
         <v>6.6666666666666666E-2</v>
@@ -5680,7 +6322,7 @@
     </row>
     <row r="95" spans="3:12">
       <c r="C95" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D95">
         <v>74.074074074074076</v>
@@ -5707,30 +6349,58 @@
         <v>1.9999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="3:6">
+    <row r="97" spans="3:12">
       <c r="C97" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="15" thickBot="1"/>
+    <row r="99" spans="3:12" ht="14.25" customHeight="1" thickBot="1">
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="16" t="str">
+        <f>Q50</f>
+        <v>Averaged illuminance (lx)</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="14.25" customHeight="1" thickBot="1">
       <c r="C100" t="str">
         <f>C81</f>
-        <v>1/Distance^2</v>
+        <v>1/Distance^2 / 1/d^2</v>
       </c>
       <c r="D100" t="str">
         <f>D50</f>
         <v>Average Illuminance (lx)</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6">
+        <v>31</v>
+      </c>
+      <c r="H100" s="12" t="str">
+        <f>K51</f>
+        <v>Distance (±0.001m) / d</v>
+      </c>
+      <c r="I100" s="12" t="str">
+        <f>C100</f>
+        <v>1/Distance^2 / 1/d^2</v>
+      </c>
+      <c r="J100" s="12" t="str">
+        <f>E81</f>
+        <v>1/Distance % error</v>
+      </c>
+      <c r="K100" s="12" t="str">
+        <f>F81</f>
+        <v>1/Distance abs error</v>
+      </c>
+      <c r="L100" s="16"/>
+    </row>
+    <row r="101" spans="3:12" ht="15" thickBot="1">
       <c r="C101">
-        <f t="shared" ref="C101:C108" si="10">C82</f>
+        <f t="shared" ref="C101:C108" si="12">C82</f>
         <v>1111.1111111111111</v>
       </c>
       <c r="D101" s="4">
@@ -5743,74 +6413,214 @@
       <c r="F101">
         <v>1690</v>
       </c>
-    </row>
-    <row r="102" spans="3:6">
+      <c r="H101" s="14">
+        <f t="shared" ref="H101:H108" si="13">K52</f>
+        <v>0.03</v>
+      </c>
+      <c r="I101" s="17">
+        <f>C101</f>
+        <v>1111.1111111111111</v>
+      </c>
+      <c r="J101" s="17">
+        <f t="shared" ref="J101:J108" si="14">E82</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K101" s="17">
+        <f t="shared" ref="K101:K108" si="15">F82</f>
+        <v>74.074074074074076</v>
+      </c>
+      <c r="L101" s="11">
+        <f>Q52</f>
+        <v>1798.4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="15" thickBot="1">
       <c r="C102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>625</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" ref="D102:D108" si="11">D53</f>
+        <f t="shared" ref="D102:D108" si="16">D53</f>
         <v>1020.2</v>
       </c>
-    </row>
-    <row r="103" spans="3:6">
+      <c r="H102" s="14">
+        <f t="shared" si="13"/>
+        <v>0.04</v>
+      </c>
+      <c r="I102" s="17">
+        <f>C102</f>
+        <v>625</v>
+      </c>
+      <c r="J102" s="17">
+        <f t="shared" si="14"/>
+        <v>0.05</v>
+      </c>
+      <c r="K102" s="17">
+        <f t="shared" si="15"/>
+        <v>31.25</v>
+      </c>
+      <c r="L102" s="11">
+        <f>Q53</f>
+        <v>1020.2</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="15" thickBot="1">
       <c r="C103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>399.99999999999994</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>668.3</v>
       </c>
-    </row>
-    <row r="104" spans="3:6">
+      <c r="H103" s="14">
+        <f t="shared" si="13"/>
+        <v>0.05</v>
+      </c>
+      <c r="I103" s="17">
+        <f>C103</f>
+        <v>399.99999999999994</v>
+      </c>
+      <c r="J103" s="17">
+        <f t="shared" si="14"/>
+        <v>0.04</v>
+      </c>
+      <c r="K103" s="17">
+        <f t="shared" si="15"/>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="L103" s="11">
+        <f>Q54</f>
+        <v>668.3</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="15" thickBot="1">
       <c r="C104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>277.77777777777777</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>499.92000000000007</v>
       </c>
-    </row>
-    <row r="105" spans="3:6">
+      <c r="H104" s="14">
+        <f t="shared" si="13"/>
+        <v>0.06</v>
+      </c>
+      <c r="I104" s="17">
+        <f>C104</f>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="J104" s="17">
+        <f t="shared" si="14"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K104" s="17">
+        <f t="shared" si="15"/>
+        <v>9.2592592592592595</v>
+      </c>
+      <c r="L104" s="11">
+        <f>Q55</f>
+        <v>499.92000000000007</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="15" thickBot="1">
       <c r="C105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>204.08163265306121</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>365.26000000000005</v>
       </c>
-    </row>
-    <row r="106" spans="3:6">
+      <c r="H105" s="14">
+        <f t="shared" si="13"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I105" s="17">
+        <f>C105</f>
+        <v>204.08163265306121</v>
+      </c>
+      <c r="J105" s="17">
+        <f t="shared" si="14"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="K105" s="17">
+        <f t="shared" si="15"/>
+        <v>5.8309037900874632</v>
+      </c>
+      <c r="L105" s="11">
+        <f>Q56</f>
+        <v>365.26000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="15" thickBot="1">
       <c r="C106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>156.25</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>266.16000000000003</v>
       </c>
-    </row>
-    <row r="107" spans="3:6">
+      <c r="H106" s="14">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="I106" s="17">
+        <f>C106</f>
+        <v>156.25</v>
+      </c>
+      <c r="J106" s="17">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K106" s="17">
+        <f t="shared" si="15"/>
+        <v>3.90625</v>
+      </c>
+      <c r="L106" s="11">
+        <f>Q57</f>
+        <v>266.16000000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" ht="15" thickBot="1">
       <c r="C107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>123.4567901234568</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>226.17999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="3:6">
+      <c r="H107" s="14">
+        <f t="shared" si="13"/>
+        <v>0.09</v>
+      </c>
+      <c r="I107" s="17">
+        <f>C107</f>
+        <v>123.4567901234568</v>
+      </c>
+      <c r="J107" s="17">
+        <f t="shared" si="14"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="K107" s="17">
+        <f t="shared" si="15"/>
+        <v>2.7434842249657065</v>
+      </c>
+      <c r="L107" s="11">
+        <f>Q58</f>
+        <v>226.17999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="15" thickBot="1">
       <c r="C108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>99.999999999999986</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>189.6</v>
       </c>
       <c r="E108">
@@ -5819,12 +6629,41 @@
       <c r="F108">
         <v>195</v>
       </c>
+      <c r="H108" s="14">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="I108" s="17">
+        <f>C108</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="J108" s="17">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="K108" s="17">
+        <f t="shared" si="15"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="L108" s="11">
+        <f>Q59</f>
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12">
+      <c r="K112" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="L99:L100"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="C35:G35"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="L50:P50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Physics/draft/light.xlsx
+++ b/Physics/draft/light.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Folder2021\IAProjects\Physics\draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB83E8DB-5678-4FD7-B8C7-1801A4AEF32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E3FDFF-8002-4A6B-8F79-F043A8F16D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>8V</t>
   </si>
@@ -177,6 +177,24 @@
     <t>Ambient (±2 lx)</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Distance (±0.001m) / d</t>
+  </si>
+  <si>
+    <t>1/Distance^2 / 1/d^2</t>
+  </si>
+  <si>
+    <t>Illuminance - Ambient Illuminance (±4lx) / Ev</t>
+  </si>
+  <si>
+    <t>Averaged illuminance (lx) / Ev</t>
+  </si>
+  <si>
+    <t>Illuminance (±2 lx) / Ev</t>
+  </si>
+  <si>
     <r>
       <t>Distance (</t>
     </r>
@@ -187,32 +205,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>±0.001 m)</t>
+      <t>±0.001 m) / d</t>
     </r>
   </si>
   <si>
-    <t>Illuminance (±2 lx)</t>
+    <t>Current (±0.01 A) / I</t>
   </si>
   <si>
-    <t>Averaged illuminance (lx)</t>
+    <t>Voltage (±0.01 V) / V</t>
   </si>
   <si>
-    <t>d</t>
+    <t>1/Distance^2 % error</t>
   </si>
   <si>
-    <t>Distance (±0.001m) / d</t>
-  </si>
-  <si>
-    <t>Illuminance - Ambient Illuminance (±4lx) / Ek</t>
-  </si>
-  <si>
-    <t>1/Distance^2 / 1/d^2</t>
-  </si>
-  <si>
-    <t>1/Distance % error</t>
-  </si>
-  <si>
-    <t>1/Distance abs error</t>
+    <t>1/Distance^2 abs error</t>
   </si>
 </sst>
 </file>
@@ -433,27 +439,27 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="17"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1507,7 +1513,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
-                  <a:t> Ek / lx</a:t>
+                  <a:t> Ev / lx</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-NZ" sz="1600"/>
               </a:p>
@@ -1760,7 +1766,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.16307492802575832"/>
+                  <c:x val="0.16126261800589095"/>
                   <c:y val="0.23548779038390247"/>
                 </c:manualLayout>
               </c:layout>
@@ -1784,7 +1790,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                      <a:t>Ek = 1.5881(m^-2) + 34.179</a:t>
+                      <a:t>Ev = 1.5881(m^-2) + 34.179</a:t>
                     </a:r>
                     <a:br>
                       <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -2079,7 +2085,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/Distance % error</c:v>
+                  <c:v>1/Distance^2 % error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2147,7 +2153,7 @@
                           <a:srgbClr val="00B0F0"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>Ek = 1.7209(m^-2) + 12.912</a:t>
+                      <a:t>Ev = 1.7209(m^-2) + 12.912</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1050">
                       <a:solidFill>
@@ -2251,7 +2257,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1/Distance abs error</c:v>
+                  <c:v>1/Distance^2 abs error</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2312,7 +2318,7 @@
                           <a:srgbClr val="FF0000"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>Ek = 1.4786(m^-2) + 47.143</a:t>
+                      <a:t>Ev = 1.4786(m^-2) + 47.143</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1100">
                       <a:solidFill>
@@ -2587,7 +2593,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
-                  <a:t> / Ek / lx</a:t>
+                  <a:t> / Ev / lx</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-NZ" sz="1400"/>
               </a:p>
@@ -4641,8 +4647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:AC112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4665,21 +4671,21 @@
     </row>
     <row r="5" spans="3:16" ht="15" thickBot="1"/>
     <row r="6" spans="3:16" ht="15" thickBot="1">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="3:16" ht="15.75" thickBot="1">
       <c r="C7" t="s">
@@ -4700,22 +4706,22 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4738,22 +4744,22 @@
       <c r="H8" s="4">
         <v>1785</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <v>0.03</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>1785</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>1958</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>1755</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>1799</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="9">
         <v>1785</v>
       </c>
     </row>
@@ -4776,22 +4782,22 @@
       <c r="H9" s="4">
         <v>1046</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>0.04</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>1025</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>1068</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>1011</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <v>1041</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="9">
         <v>1046</v>
       </c>
     </row>
@@ -4814,22 +4820,22 @@
       <c r="H10" s="4">
         <v>693</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>0.05</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="9">
         <v>680</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>659.9</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <v>710.9</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <v>687.7</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="9">
         <v>693</v>
       </c>
     </row>
@@ -4852,22 +4858,22 @@
       <c r="H11" s="4">
         <v>524.5</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="11">
         <v>0.06</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="9">
         <v>525.20000000000005</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>485</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>505.6</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="9">
         <v>549.29999999999995</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="9">
         <v>524.5</v>
       </c>
     </row>
@@ -4890,22 +4896,22 @@
       <c r="H12" s="4">
         <v>393</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="9">
         <v>389.1</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="9">
         <v>366.6</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="9">
         <v>388.2</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="9">
         <v>379.4</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="9">
         <v>393</v>
       </c>
     </row>
@@ -4928,22 +4934,22 @@
       <c r="H13" s="4">
         <v>300.60000000000002</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="11">
         <v>0.08</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>276.8</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="9">
         <v>295.2</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <v>274.5</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="9">
         <v>273.7</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="9">
         <v>300.60000000000002</v>
       </c>
     </row>
@@ -4966,22 +4972,22 @@
       <c r="H14" s="4">
         <v>231.6</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="11">
         <v>0.09</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="9">
         <v>248.9</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="9">
         <v>240.5</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <v>241.9</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="9">
         <v>258</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="9">
         <v>231.6</v>
       </c>
     </row>
@@ -5004,22 +5010,22 @@
       <c r="H15" s="4">
         <v>217.1</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="11">
         <v>0.1</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="9">
         <v>214.3</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <v>195.6</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <v>211.4</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <v>199.6</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="9">
         <v>217.1</v>
       </c>
     </row>
@@ -5031,10 +5037,10 @@
       <c r="D17" s="1">
         <v>0.27</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="10">
+      <c r="K17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="8">
         <v>0.27</v>
       </c>
     </row>
@@ -5045,10 +5051,10 @@
       <c r="D18" s="1">
         <v>7.2</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="10">
+      <c r="K18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="8">
         <v>7.2</v>
       </c>
     </row>
@@ -5059,10 +5065,10 @@
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="10">
         <v>18</v>
       </c>
     </row>
@@ -5148,21 +5154,21 @@
     </row>
     <row r="34" spans="3:16" ht="15" thickBot="1"/>
     <row r="35" spans="3:16" ht="15" thickBot="1">
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" spans="3:16" ht="15" thickBot="1">
       <c r="C36" t="str">
@@ -5185,22 +5191,22 @@
         <f>H7</f>
         <v>Trial 5</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L36" s="12" t="s">
+      <c r="K36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="N36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="O36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="P36" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5225,22 +5231,22 @@
         <f t="shared" si="0"/>
         <v>1767</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="11">
         <v>0.03</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="9">
         <v>1767</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="9">
         <v>1940</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="9">
         <v>1737</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="9">
         <v>1781</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="9">
         <v>1767</v>
       </c>
     </row>
@@ -5265,22 +5271,22 @@
         <f t="shared" si="0"/>
         <v>1028</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="11">
         <v>0.04</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="9">
         <v>1007</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="9">
         <v>1050</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="9">
         <v>993</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="9">
         <v>1023</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="9">
         <v>1028</v>
       </c>
     </row>
@@ -5305,22 +5311,22 @@
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="11">
         <v>0.05</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="9">
         <v>662</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="9">
         <v>641.9</v>
       </c>
-      <c r="N39" s="11">
+      <c r="N39" s="9">
         <v>692.9</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="9">
         <v>669.7</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="9">
         <v>675</v>
       </c>
     </row>
@@ -5345,22 +5351,22 @@
         <f t="shared" si="0"/>
         <v>506.5</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="11">
         <v>0.06</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="9">
         <v>507.20000000000005</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="9">
         <v>467</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="9">
         <v>487.6</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="9">
         <v>531.29999999999995</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="9">
         <v>506.5</v>
       </c>
     </row>
@@ -5385,22 +5391,22 @@
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="9">
         <v>371.1</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M41" s="9">
         <v>348.6</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="9">
         <v>370.2</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="9">
         <v>361.4</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="9">
         <v>375</v>
       </c>
     </row>
@@ -5425,22 +5431,22 @@
         <f t="shared" si="0"/>
         <v>282.60000000000002</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="11">
         <v>0.08</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="9">
         <v>258.8</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="9">
         <v>277.2</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="9">
         <v>256.5</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="9">
         <v>255.7</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="9">
         <v>282.60000000000002</v>
       </c>
     </row>
@@ -5465,22 +5471,22 @@
         <f t="shared" si="0"/>
         <v>213.6</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="11">
         <v>0.09</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="9">
         <v>230.9</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M43" s="9">
         <v>222.5</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="9">
         <v>223.9</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="9">
         <v>240</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="9">
         <v>213.6</v>
       </c>
     </row>
@@ -5505,22 +5511,22 @@
         <f t="shared" si="0"/>
         <v>199.1</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="11">
         <v>0.1</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="9">
         <v>196.3</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="9">
         <v>177.6</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="9">
         <v>193.4</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="9">
         <v>181.6</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="9">
         <v>199.1</v>
       </c>
     </row>
@@ -5531,60 +5537,60 @@
     </row>
     <row r="49" spans="3:29" ht="15" thickBot="1"/>
     <row r="50" spans="3:29" ht="15" thickBot="1">
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="R50" s="16" t="s">
+      <c r="K50" s="10"/>
+      <c r="L50" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" s="15" t="s">
         <v>34</v>
       </c>
       <c r="AC50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="3:29" ht="15.75" thickBot="1">
       <c r="C51" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="17"/>
       <c r="E51" t="s">
         <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L51" s="12" t="s">
+      <c r="K51" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M51" s="12" t="s">
+      <c r="M51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N51" s="12" t="s">
+      <c r="N51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O51" s="12" t="s">
+      <c r="O51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P51" s="12" t="s">
+      <c r="P51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="16"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="15"/>
     </row>
     <row r="52" spans="3:29" ht="15" thickBot="1">
       <c r="C52" s="2">
@@ -5603,29 +5609,29 @@
         <f>E52</f>
         <v>101.5</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="11">
         <v>0.03</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="9">
         <v>1767</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="9">
         <v>1940</v>
       </c>
-      <c r="N52" s="11">
+      <c r="N52" s="9">
         <v>1737</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="9">
         <v>1781</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="9">
         <v>1767</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="9">
         <f>D52</f>
         <v>1798.4</v>
       </c>
-      <c r="R52" s="11">
+      <c r="R52" s="9">
         <f>E52</f>
         <v>101.5</v>
       </c>
@@ -5647,29 +5653,29 @@
         <f t="shared" ref="F53:F59" si="4">E53</f>
         <v>28.5</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="11">
         <v>0.04</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="9">
         <v>1007</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="9">
         <v>1050</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N53" s="9">
         <v>993</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O53" s="9">
         <v>1023</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="9">
         <v>1028</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q53" s="9">
         <f t="shared" ref="Q53:Q59" si="5">D53</f>
         <v>1020.2</v>
       </c>
-      <c r="R53" s="11">
+      <c r="R53" s="9">
         <f t="shared" ref="R53:R59" si="6">E53</f>
         <v>28.5</v>
       </c>
@@ -5691,29 +5697,29 @@
         <f t="shared" si="4"/>
         <v>25.5</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="11">
         <v>0.05</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="9">
         <v>662</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="9">
         <v>641.9</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N54" s="9">
         <v>692.9</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O54" s="9">
         <v>669.7</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="9">
         <v>675</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q54" s="9">
         <f t="shared" si="5"/>
         <v>668.3</v>
       </c>
-      <c r="R54" s="11">
+      <c r="R54" s="9">
         <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
@@ -5735,29 +5741,29 @@
         <f t="shared" si="4"/>
         <v>32.149999999999977</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="11">
         <v>0.06</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="9">
         <v>507.20000000000005</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="9">
         <v>467</v>
       </c>
-      <c r="N55" s="11">
+      <c r="N55" s="9">
         <v>487.6</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O55" s="9">
         <v>531.29999999999995</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="9">
         <v>506.5</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q55" s="9">
         <f t="shared" si="5"/>
         <v>499.92000000000007</v>
       </c>
-      <c r="R55" s="11">
+      <c r="R55" s="9">
         <f t="shared" si="6"/>
         <v>32.149999999999977</v>
       </c>
@@ -5779,29 +5785,29 @@
         <f t="shared" si="4"/>
         <v>13.199999999999989</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="9">
         <v>371.1</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="9">
         <v>348.6</v>
       </c>
-      <c r="N56" s="11">
+      <c r="N56" s="9">
         <v>370.2</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O56" s="9">
         <v>361.4</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="9">
         <v>375</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q56" s="9">
         <f t="shared" si="5"/>
         <v>365.26000000000005</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R56" s="9">
         <f t="shared" si="6"/>
         <v>13.199999999999989</v>
       </c>
@@ -5823,29 +5829,29 @@
         <f t="shared" si="4"/>
         <v>13.450000000000017</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="11">
         <v>0.08</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="9">
         <v>258.8</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="9">
         <v>277.2</v>
       </c>
-      <c r="N57" s="11">
+      <c r="N57" s="9">
         <v>256.5</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O57" s="9">
         <v>255.7</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="9">
         <v>282.60000000000002</v>
       </c>
-      <c r="Q57" s="11">
+      <c r="Q57" s="9">
         <f t="shared" si="5"/>
         <v>266.16000000000003</v>
       </c>
-      <c r="R57" s="11">
+      <c r="R57" s="9">
         <f t="shared" si="6"/>
         <v>13.450000000000017</v>
       </c>
@@ -5867,29 +5873,29 @@
         <f t="shared" si="4"/>
         <v>13.200000000000003</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="11">
         <v>0.09</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="9">
         <v>230.9</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="9">
         <v>222.5</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="9">
         <v>223.9</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="9">
         <v>240</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="9">
         <v>213.6</v>
       </c>
-      <c r="Q58" s="11">
+      <c r="Q58" s="9">
         <f t="shared" si="5"/>
         <v>226.17999999999998</v>
       </c>
-      <c r="R58" s="11">
+      <c r="R58" s="9">
         <f t="shared" si="6"/>
         <v>13.200000000000003</v>
       </c>
@@ -5911,29 +5917,29 @@
         <f t="shared" si="4"/>
         <v>10.75</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="11">
         <v>0.1</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="9">
         <v>196.3</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="9">
         <v>177.6</v>
       </c>
-      <c r="N59" s="11">
+      <c r="N59" s="9">
         <v>193.4</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O59" s="9">
         <v>181.6</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="9">
         <v>199.1</v>
       </c>
-      <c r="Q59" s="11">
+      <c r="Q59" s="9">
         <f t="shared" si="5"/>
         <v>189.6</v>
       </c>
-      <c r="R59" s="11">
+      <c r="R59" s="9">
         <f t="shared" si="6"/>
         <v>10.75</v>
       </c>
@@ -5945,16 +5951,16 @@
     </row>
     <row r="81" spans="3:12" ht="14.25" customHeight="1">
       <c r="C81" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G81" t="str">
         <f>D50</f>
@@ -6356,13 +6362,13 @@
     </row>
     <row r="98" spans="3:12" ht="15" thickBot="1"/>
     <row r="99" spans="3:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="16" t="str">
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="15" t="str">
         <f>Q50</f>
-        <v>Averaged illuminance (lx)</v>
+        <v>Averaged illuminance (lx) / Ev</v>
       </c>
     </row>
     <row r="100" spans="3:12" ht="14.25" customHeight="1" thickBot="1">
@@ -6380,27 +6386,27 @@
       <c r="F100" t="s">
         <v>31</v>
       </c>
-      <c r="H100" s="12" t="str">
+      <c r="H100" s="10" t="str">
         <f>K51</f>
         <v>Distance (±0.001m) / d</v>
       </c>
-      <c r="I100" s="12" t="str">
-        <f>C100</f>
+      <c r="I100" s="10" t="str">
+        <f t="shared" ref="I100:I108" si="12">C100</f>
         <v>1/Distance^2 / 1/d^2</v>
       </c>
-      <c r="J100" s="12" t="str">
+      <c r="J100" s="10" t="str">
         <f>E81</f>
-        <v>1/Distance % error</v>
-      </c>
-      <c r="K100" s="12" t="str">
+        <v>1/Distance^2 % error</v>
+      </c>
+      <c r="K100" s="10" t="str">
         <f>F81</f>
-        <v>1/Distance abs error</v>
-      </c>
-      <c r="L100" s="16"/>
+        <v>1/Distance^2 abs error</v>
+      </c>
+      <c r="L100" s="15"/>
     </row>
     <row r="101" spans="3:12" ht="15" thickBot="1">
       <c r="C101">
-        <f t="shared" ref="C101:C108" si="12">C82</f>
+        <f t="shared" ref="C101:C108" si="13">C82</f>
         <v>1111.1111111111111</v>
       </c>
       <c r="D101" s="4">
@@ -6413,245 +6419,245 @@
       <c r="F101">
         <v>1690</v>
       </c>
-      <c r="H101" s="14">
-        <f t="shared" ref="H101:H108" si="13">K52</f>
+      <c r="H101" s="11">
+        <f t="shared" ref="H101:H108" si="14">K52</f>
         <v>0.03</v>
       </c>
-      <c r="I101" s="17">
-        <f>C101</f>
+      <c r="I101" s="12">
+        <f t="shared" si="12"/>
         <v>1111.1111111111111</v>
       </c>
-      <c r="J101" s="17">
-        <f t="shared" ref="J101:J108" si="14">E82</f>
+      <c r="J101" s="12">
+        <f t="shared" ref="J101:J108" si="15">E82</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="K101" s="17">
-        <f t="shared" ref="K101:K108" si="15">F82</f>
+      <c r="K101" s="12">
+        <f t="shared" ref="K101:K108" si="16">F82</f>
         <v>74.074074074074076</v>
       </c>
-      <c r="L101" s="11">
-        <f>Q52</f>
+      <c r="L101" s="9">
+        <f t="shared" ref="L101:L108" si="17">Q52</f>
         <v>1798.4</v>
       </c>
     </row>
     <row r="102" spans="3:12" ht="15" thickBot="1">
       <c r="C102">
+        <f t="shared" si="13"/>
+        <v>625</v>
+      </c>
+      <c r="D102" s="4">
+        <f t="shared" ref="D102:D108" si="18">D53</f>
+        <v>1020.2</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="14"/>
+        <v>0.04</v>
+      </c>
+      <c r="I102" s="12">
         <f t="shared" si="12"/>
         <v>625</v>
       </c>
-      <c r="D102" s="4">
-        <f t="shared" ref="D102:D108" si="16">D53</f>
+      <c r="J102" s="12">
+        <f t="shared" si="15"/>
+        <v>0.05</v>
+      </c>
+      <c r="K102" s="12">
+        <f t="shared" si="16"/>
+        <v>31.25</v>
+      </c>
+      <c r="L102" s="9">
+        <f t="shared" si="17"/>
         <v>1020.2</v>
       </c>
-      <c r="H102" s="14">
+    </row>
+    <row r="103" spans="3:12" ht="15" thickBot="1">
+      <c r="C103">
         <f t="shared" si="13"/>
-        <v>0.04</v>
-      </c>
-      <c r="I102" s="17">
-        <f>C102</f>
-        <v>625</v>
-      </c>
-      <c r="J102" s="17">
+        <v>399.99999999999994</v>
+      </c>
+      <c r="D103" s="4">
+        <f t="shared" si="18"/>
+        <v>668.3</v>
+      </c>
+      <c r="H103" s="11">
         <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
-      <c r="K102" s="17">
-        <f t="shared" si="15"/>
-        <v>31.25</v>
-      </c>
-      <c r="L102" s="11">
-        <f>Q53</f>
-        <v>1020.2</v>
-      </c>
-    </row>
-    <row r="103" spans="3:12" ht="15" thickBot="1">
-      <c r="C103">
+      <c r="I103" s="12">
         <f t="shared" si="12"/>
         <v>399.99999999999994</v>
       </c>
-      <c r="D103" s="4">
+      <c r="J103" s="12">
+        <f t="shared" si="15"/>
+        <v>0.04</v>
+      </c>
+      <c r="K103" s="12">
         <f t="shared" si="16"/>
-        <v>668.3</v>
-      </c>
-      <c r="H103" s="14">
-        <f t="shared" si="13"/>
-        <v>0.05</v>
-      </c>
-      <c r="I103" s="17">
-        <f>C103</f>
-        <v>399.99999999999994</v>
-      </c>
-      <c r="J103" s="17">
-        <f t="shared" si="14"/>
-        <v>0.04</v>
-      </c>
-      <c r="K103" s="17">
-        <f t="shared" si="15"/>
         <v>15.999999999999998</v>
       </c>
-      <c r="L103" s="11">
-        <f>Q54</f>
+      <c r="L103" s="9">
+        <f t="shared" si="17"/>
         <v>668.3</v>
       </c>
     </row>
     <row r="104" spans="3:12" ht="15" thickBot="1">
       <c r="C104">
+        <f t="shared" si="13"/>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="D104" s="4">
+        <f t="shared" si="18"/>
+        <v>499.92000000000007</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="14"/>
+        <v>0.06</v>
+      </c>
+      <c r="I104" s="12">
         <f t="shared" si="12"/>
         <v>277.77777777777777</v>
       </c>
-      <c r="D104" s="4">
+      <c r="J104" s="12">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K104" s="12">
         <f t="shared" si="16"/>
-        <v>499.92000000000007</v>
-      </c>
-      <c r="H104" s="14">
-        <f t="shared" si="13"/>
-        <v>0.06</v>
-      </c>
-      <c r="I104" s="17">
-        <f>C104</f>
-        <v>277.77777777777777</v>
-      </c>
-      <c r="J104" s="17">
-        <f t="shared" si="14"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="K104" s="17">
-        <f t="shared" si="15"/>
         <v>9.2592592592592595</v>
       </c>
-      <c r="L104" s="11">
-        <f>Q55</f>
+      <c r="L104" s="9">
+        <f t="shared" si="17"/>
         <v>499.92000000000007</v>
       </c>
     </row>
     <row r="105" spans="3:12" ht="15" thickBot="1">
       <c r="C105">
+        <f t="shared" si="13"/>
+        <v>204.08163265306121</v>
+      </c>
+      <c r="D105" s="4">
+        <f t="shared" si="18"/>
+        <v>365.26000000000005</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="14"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I105" s="12">
         <f t="shared" si="12"/>
         <v>204.08163265306121</v>
       </c>
-      <c r="D105" s="4">
+      <c r="J105" s="12">
+        <f t="shared" si="15"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="K105" s="12">
         <f t="shared" si="16"/>
-        <v>365.26000000000005</v>
-      </c>
-      <c r="H105" s="14">
-        <f t="shared" si="13"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I105" s="17">
-        <f>C105</f>
-        <v>204.08163265306121</v>
-      </c>
-      <c r="J105" s="17">
-        <f t="shared" si="14"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="K105" s="17">
-        <f t="shared" si="15"/>
         <v>5.8309037900874632</v>
       </c>
-      <c r="L105" s="11">
-        <f>Q56</f>
+      <c r="L105" s="9">
+        <f t="shared" si="17"/>
         <v>365.26000000000005</v>
       </c>
     </row>
     <row r="106" spans="3:12" ht="15" thickBot="1">
       <c r="C106">
+        <f t="shared" si="13"/>
+        <v>156.25</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" si="18"/>
+        <v>266.16000000000003</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="14"/>
+        <v>0.08</v>
+      </c>
+      <c r="I106" s="12">
         <f t="shared" si="12"/>
         <v>156.25</v>
       </c>
-      <c r="D106" s="4">
+      <c r="J106" s="12">
+        <f t="shared" si="15"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K106" s="12">
         <f t="shared" si="16"/>
-        <v>266.16000000000003</v>
-      </c>
-      <c r="H106" s="14">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
-      </c>
-      <c r="I106" s="17">
-        <f>C106</f>
-        <v>156.25</v>
-      </c>
-      <c r="J106" s="17">
-        <f t="shared" si="14"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K106" s="17">
-        <f t="shared" si="15"/>
         <v>3.90625</v>
       </c>
-      <c r="L106" s="11">
-        <f>Q57</f>
+      <c r="L106" s="9">
+        <f t="shared" si="17"/>
         <v>266.16000000000003</v>
       </c>
     </row>
     <row r="107" spans="3:12" ht="15" thickBot="1">
       <c r="C107">
+        <f t="shared" si="13"/>
+        <v>123.4567901234568</v>
+      </c>
+      <c r="D107" s="4">
+        <f t="shared" si="18"/>
+        <v>226.17999999999998</v>
+      </c>
+      <c r="H107" s="11">
+        <f t="shared" si="14"/>
+        <v>0.09</v>
+      </c>
+      <c r="I107" s="12">
         <f t="shared" si="12"/>
         <v>123.4567901234568</v>
       </c>
-      <c r="D107" s="4">
+      <c r="J107" s="12">
+        <f t="shared" si="15"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="K107" s="12">
         <f t="shared" si="16"/>
-        <v>226.17999999999998</v>
-      </c>
-      <c r="H107" s="14">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
-      </c>
-      <c r="I107" s="17">
-        <f>C107</f>
-        <v>123.4567901234568</v>
-      </c>
-      <c r="J107" s="17">
-        <f t="shared" si="14"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="K107" s="17">
-        <f t="shared" si="15"/>
         <v>2.7434842249657065</v>
       </c>
-      <c r="L107" s="11">
-        <f>Q58</f>
+      <c r="L107" s="9">
+        <f t="shared" si="17"/>
         <v>226.17999999999998</v>
       </c>
     </row>
     <row r="108" spans="3:12" ht="15" thickBot="1">
       <c r="C108">
+        <f t="shared" si="13"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="D108" s="4">
+        <f t="shared" si="18"/>
+        <v>189.6</v>
+      </c>
+      <c r="E108">
+        <v>185</v>
+      </c>
+      <c r="F108">
+        <v>195</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="I108" s="12">
         <f t="shared" si="12"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="D108" s="4">
+      <c r="J108" s="12">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="K108" s="12">
         <f t="shared" si="16"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="L108" s="9">
+        <f t="shared" si="17"/>
         <v>189.6</v>
       </c>
-      <c r="E108">
-        <v>185</v>
-      </c>
-      <c r="F108">
-        <v>195</v>
-      </c>
-      <c r="H108" s="14">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="I108" s="17">
-        <f>C108</f>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="J108" s="17">
-        <f t="shared" si="14"/>
-        <v>0.02</v>
-      </c>
-      <c r="K108" s="17">
-        <f t="shared" si="15"/>
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="L108" s="11">
-        <f>Q59</f>
-        <v>189.6</v>
-      </c>
     </row>
     <row r="112" spans="3:12">
-      <c r="K112" s="18"/>
+      <c r="K112" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
